--- a/data.xlsx
+++ b/data.xlsx
@@ -1,23 +1,25 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22325"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="22430"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zachery Bignall\Desktop\winter_2019-2020\csc_430\project\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zachery Bignall\Desktop\winter_2019-2020\csc_430\project\CSC_430_winte_19-20\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{427A9017-F907-4E5F-9245-730E2A431BD8}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED2FD5C-E428-486E-B54E-6D4CC35382DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" activeTab="4" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="0" yWindow="1428" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
     <sheet name="loctaion" sheetId="2" r:id="rId2"/>
     <sheet name="buyer" sheetId="3" r:id="rId3"/>
     <sheet name="Department" sheetId="4" r:id="rId4"/>
-    <sheet name="Sheet4" sheetId="5" r:id="rId5"/>
+    <sheet name="inventory" sheetId="5" r:id="rId5"/>
+    <sheet name="Parts" sheetId="6" r:id="rId6"/>
+    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
@@ -29,7 +31,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="19" uniqueCount="19">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
   <si>
     <t>98 south lane</t>
   </si>
@@ -86,6 +88,93 @@
   </si>
   <si>
     <t>repair</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>4-o's</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Used </t>
+  </si>
+  <si>
+    <t>RCA</t>
+  </si>
+  <si>
+    <t>22eft57-a</t>
+  </si>
+  <si>
+    <t>ssfj69ij-a</t>
+  </si>
+  <si>
+    <t>33gthry7-s</t>
+  </si>
+  <si>
+    <t>battery</t>
+  </si>
+  <si>
+    <t>brakes pads</t>
+  </si>
+  <si>
+    <t>spark plugs</t>
+  </si>
+  <si>
+    <t xml:space="preserve">fuel injector </t>
+  </si>
+  <si>
+    <t>radiator</t>
+  </si>
+  <si>
+    <t>car jark</t>
+  </si>
+  <si>
+    <t xml:space="preserve">nuts </t>
+  </si>
+  <si>
+    <t>bolts</t>
+  </si>
+  <si>
+    <t>clutch</t>
+  </si>
+  <si>
+    <t>air filter</t>
+  </si>
+  <si>
+    <t>muffler</t>
+  </si>
+  <si>
+    <t>catalyic converter</t>
+  </si>
+  <si>
+    <t>alternator</t>
+  </si>
+  <si>
+    <t>seats</t>
+  </si>
+  <si>
+    <t xml:space="preserve">head light blub </t>
+  </si>
+  <si>
+    <t xml:space="preserve">oil filter </t>
+  </si>
+  <si>
+    <t>fuel filter</t>
+  </si>
+  <si>
+    <t>fues</t>
+  </si>
+  <si>
+    <t>brake disc</t>
+  </si>
+  <si>
+    <t>keys</t>
+  </si>
+  <si>
+    <t>4reht6</t>
+  </si>
+  <si>
+    <t>futis</t>
   </si>
 </sst>
 </file>
@@ -538,7 +627,7 @@
   <dimension ref="A1:D2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C2" sqref="C2"/>
+      <selection activeCell="D1" sqref="D1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -627,12 +716,350 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0808F359-0AA3-47B2-B546-0A8F08FB0DA5}">
-  <dimension ref="A1"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D2" sqref="D2"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
-  <sheetData/>
+  <sheetData>
+    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>19</v>
+      </c>
+      <c r="B1">
+        <v>202</v>
+      </c>
+      <c r="C1" t="s">
+        <v>20</v>
+      </c>
+      <c r="D1" t="s">
+        <v>23</v>
+      </c>
+      <c r="E1">
+        <v>59999</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>21</v>
+      </c>
+      <c r="B2">
+        <v>203</v>
+      </c>
+      <c r="C2" t="s">
+        <v>20</v>
+      </c>
+      <c r="D2" t="s">
+        <v>24</v>
+      </c>
+      <c r="E2">
+        <v>29999</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>19</v>
+      </c>
+      <c r="B3">
+        <v>204</v>
+      </c>
+      <c r="C3" t="s">
+        <v>22</v>
+      </c>
+      <c r="D3" t="s">
+        <v>25</v>
+      </c>
+      <c r="E3">
+        <v>39999</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACF3583-C0BC-4315-B1D9-85B57C3776E1}">
+  <dimension ref="A1:C20"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C10" sqref="C10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1" t="s">
+        <v>26</v>
+      </c>
+      <c r="B1">
+        <v>1</v>
+      </c>
+      <c r="C1">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2" t="s">
+        <v>27</v>
+      </c>
+      <c r="B2">
+        <v>2</v>
+      </c>
+      <c r="C2">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B3">
+        <v>3</v>
+      </c>
+      <c r="C3">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B4">
+        <v>4</v>
+      </c>
+      <c r="C4">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" t="s">
+        <v>30</v>
+      </c>
+      <c r="B5">
+        <v>5</v>
+      </c>
+      <c r="C5">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" t="s">
+        <v>31</v>
+      </c>
+      <c r="B6">
+        <v>6</v>
+      </c>
+      <c r="C6">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" t="s">
+        <v>32</v>
+      </c>
+      <c r="B7">
+        <v>7</v>
+      </c>
+      <c r="C7">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" t="s">
+        <v>33</v>
+      </c>
+      <c r="B8">
+        <v>8</v>
+      </c>
+      <c r="C8">
+        <v>0.5</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" t="s">
+        <v>34</v>
+      </c>
+      <c r="B9">
+        <v>9</v>
+      </c>
+      <c r="C9">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" t="s">
+        <v>35</v>
+      </c>
+      <c r="B10">
+        <v>10</v>
+      </c>
+      <c r="C10">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A11" t="s">
+        <v>36</v>
+      </c>
+      <c r="B11">
+        <v>11</v>
+      </c>
+      <c r="C11">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A12" t="s">
+        <v>37</v>
+      </c>
+      <c r="B12">
+        <v>12</v>
+      </c>
+      <c r="C12">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A13" t="s">
+        <v>38</v>
+      </c>
+      <c r="B13">
+        <v>13</v>
+      </c>
+      <c r="C13">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" t="s">
+        <v>39</v>
+      </c>
+      <c r="B14">
+        <v>14</v>
+      </c>
+      <c r="C14">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" t="s">
+        <v>40</v>
+      </c>
+      <c r="B15">
+        <v>15</v>
+      </c>
+      <c r="C15">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" t="s">
+        <v>41</v>
+      </c>
+      <c r="B16">
+        <v>16</v>
+      </c>
+      <c r="C16">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" t="s">
+        <v>42</v>
+      </c>
+      <c r="B17">
+        <v>17</v>
+      </c>
+      <c r="C17">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" t="s">
+        <v>43</v>
+      </c>
+      <c r="B18">
+        <v>18</v>
+      </c>
+      <c r="C18">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" t="s">
+        <v>44</v>
+      </c>
+      <c r="B19">
+        <v>19</v>
+      </c>
+      <c r="C19">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" t="s">
+        <v>45</v>
+      </c>
+      <c r="B20">
+        <v>20</v>
+      </c>
+      <c r="C20">
+        <v>500</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F65F2D-A69E-4948-9292-C25AF56E58C1}">
+  <dimension ref="A1:C3"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C4" sqref="C4"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A1">
+        <v>1</v>
+      </c>
+      <c r="B1" t="s">
+        <v>46</v>
+      </c>
+      <c r="C1">
+        <v>3000</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A2">
+        <v>2</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2">
+        <v>500</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A3">
+        <v>3</v>
+      </c>
+      <c r="B3" t="s">
+        <v>47</v>
+      </c>
+      <c r="C3">
+        <v>150</v>
+      </c>
+    </row>
+  </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>
--- a/data.xlsx
+++ b/data.xlsx
@@ -5,12 +5,12 @@
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Zachery Bignall\Desktop\winter_2019-2020\csc_430\project\CSC_430_winte_19-20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{8ED2FD5C-E428-486E-B54E-6D4CC35382DA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C28EFC5-9E25-48C3-BA7D-FBE6BA918CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="1428" windowWidth="17280" windowHeight="8964" firstSheet="3" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
@@ -19,19 +19,27 @@
     <sheet name="Department" sheetId="4" r:id="rId4"/>
     <sheet name="inventory" sheetId="5" r:id="rId5"/>
     <sheet name="Parts" sheetId="6" r:id="rId6"/>
-    <sheet name="Sheet2" sheetId="7" r:id="rId7"/>
+    <sheet name="Car" sheetId="7" r:id="rId7"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
+    </ext>
+    <ext xmlns:xcalcf="http://schemas.microsoft.com/office/spreadsheetml/2018/calcfeatures" uri="{B58B0392-4F1F-4190-BB64-5DF3571DCE5F}">
+      <xcalcf:calcFeatures>
+        <xcalcf:feature name="microsoft.com:RD"/>
+        <xcalcf:feature name="microsoft.com:Single"/>
+        <xcalcf:feature name="microsoft.com:FV"/>
+        <xcalcf:feature name="microsoft.com:CNMTM"/>
+      </xcalcf:calcFeatures>
     </ext>
   </extLst>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="51" uniqueCount="48">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
   <si>
     <t>98 south lane</t>
   </si>
@@ -175,13 +183,103 @@
   </si>
   <si>
     <t>futis</t>
+  </si>
+  <si>
+    <t>DEPT_ID</t>
+  </si>
+  <si>
+    <t>D_NAME</t>
+  </si>
+  <si>
+    <t>D_SALARY</t>
+  </si>
+  <si>
+    <t>EMPL_ID</t>
+  </si>
+  <si>
+    <t>E_ADDR</t>
+  </si>
+  <si>
+    <t>E_NAME</t>
+  </si>
+  <si>
+    <t>E_SALARY</t>
+  </si>
+  <si>
+    <t>#top is different from the rest</t>
+  </si>
+  <si>
+    <t>Last digit will change if more data is inputed #Manual</t>
+  </si>
+  <si>
+    <t>LOC_ID</t>
+  </si>
+  <si>
+    <t>L_ADDR</t>
+  </si>
+  <si>
+    <t>L_PHONE</t>
+  </si>
+  <si>
+    <t>L_INCOME</t>
+  </si>
+  <si>
+    <t>L_NAME</t>
+  </si>
+  <si>
+    <t>PRICE_CHK</t>
+  </si>
+  <si>
+    <t>BUY_DATE</t>
+  </si>
+  <si>
+    <t>B_ID</t>
+  </si>
+  <si>
+    <t>B_NAME</t>
+  </si>
+  <si>
+    <t>CAR_INFO</t>
+  </si>
+  <si>
+    <t>NEW_USED</t>
+  </si>
+  <si>
+    <t>CAR_NUM</t>
+  </si>
+  <si>
+    <t>COMPANY</t>
+  </si>
+  <si>
+    <t>VIN_NUM</t>
+  </si>
+  <si>
+    <t>CAR_PRICE</t>
+  </si>
+  <si>
+    <t>PART_NAME</t>
+  </si>
+  <si>
+    <t>PART_NUM</t>
+  </si>
+  <si>
+    <t>PART_PRICE</t>
+  </si>
+  <si>
+    <t>REPAIR_NO</t>
+  </si>
+  <si>
+    <t>VIN_NO</t>
+  </si>
+  <si>
+    <t>REPAIR_PRICE</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="5" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -195,13 +293,44 @@
       <family val="2"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF006100"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color rgb="FF9C0006"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="11"/>
+      <color theme="4" tint="-0.249977111117893"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="2">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFC6EFCE"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFC7CE"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -213,14 +342,21 @@
       <diagonal/>
     </border>
   </borders>
-  <cellStyleXfs count="1">
+  <cellStyleXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" applyNumberFormat="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="0" fontId="3" fillId="3" borderId="0" xfId="2"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
-  <cellStyles count="1">
+  <cellStyles count="3">
+    <cellStyle name="Bad" xfId="2" builtinId="27"/>
+    <cellStyle name="Good" xfId="1" builtinId="26"/>
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
   </cellStyles>
   <dxfs count="0"/>
@@ -499,122 +635,240 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+      <selection activeCell="E39" sqref="E39"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="7" max="7" width="65.140625" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="8.85546875" customWidth="1"/>
+    <col min="9" max="9" width="255" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>51</v>
+      </c>
+      <c r="B1" t="s">
+        <v>52</v>
+      </c>
+      <c r="C1" t="s">
+        <v>53</v>
+      </c>
+      <c r="D1" t="s">
+        <v>54</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", " &amp;D1&amp;") values "</f>
+        <v xml:space="preserve">insert into Department (EMPL_ID, E_ADDR, E_NAME, E_SALARY) values </v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>0</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>1</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>40000</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="G2" t="str">
+        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;", '"&amp;D2&amp;"')"</f>
+        <v>('1', '98 south lane', 'smith,john, '40000')</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(ISBLANK(G3),G2&amp;";",G2&amp;", "&amp;G3)</f>
+        <v>('1', '98 south lane', 'smith,john, '40000'), ('2', '99 south lane', 'smith,jonny, '60000')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>6</v>
       </c>
-      <c r="D2">
+      <c r="D3">
         <v>60000</v>
       </c>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G6" si="0">"('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;", '"&amp;D3&amp;"')"</f>
+        <v>('2', '99 south lane', 'smith,jonny, '60000')</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(ISBLANK(G4),H2&amp;";",H2&amp;", "&amp;G4)</f>
+        <v>('1', '98 south lane', 'smith,john, '40000'), ('2', '99 south lane', 'smith,jonny, '60000'), ('3', '100 south lane', 'Kinddy,Mark, '50000')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>3</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>7</v>
       </c>
-      <c r="D3">
+      <c r="D4">
         <v>50000</v>
       </c>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>('3', '100 south lane', 'Kinddy,Mark, '50000')</v>
+      </c>
+      <c r="H4" t="str">
+        <f>IF((G5=""),H3&amp;";",H3&amp;", "&amp;G5)</f>
+        <v>('1', '98 south lane', 'smith,john, '40000'), ('2', '99 south lane', 'smith,jonny, '60000'), ('3', '100 south lane', 'Kinddy,Mark, '50000'), ('4', '101 south lane', 'Oohhun, Lone , '40000')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A5">
         <v>4</v>
       </c>
-      <c r="B4" t="s">
+      <c r="B5" t="s">
         <v>4</v>
       </c>
-      <c r="C4" t="s">
+      <c r="C5" t="s">
         <v>8</v>
       </c>
-      <c r="D4">
+      <c r="D5">
         <v>40000</v>
       </c>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A5">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>('4', '101 south lane', 'Oohhun, Lone , '40000')</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" ref="H5:H6" si="1">IF((G6=""),H4&amp;";",H4&amp;", "&amp;G6)</f>
+        <v>('1', '98 south lane', 'smith,john, '40000'), ('2', '99 south lane', 'smith,jonny, '60000'), ('3', '100 south lane', 'Kinddy,Mark, '50000'), ('4', '101 south lane', 'Oohhun, Lone , '40000'), ('5', '102 south lane', 'Sky,Han, '100000')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A6">
         <v>5</v>
       </c>
-      <c r="B5" t="s">
+      <c r="B6" t="s">
         <v>5</v>
       </c>
-      <c r="C5" t="s">
+      <c r="C6" t="s">
         <v>9</v>
       </c>
-      <c r="D5">
+      <c r="D6">
         <v>100000</v>
+      </c>
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>('5', '102 south lane', 'Sky,Han, '100000')</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>('1', '98 south lane', 'smith,john, '40000'), ('2', '99 south lane', 'smith,jonny, '60000'), ('3', '100 south lane', 'Kinddy,Mark, '50000'), ('4', '101 south lane', 'Oohhun, Lone , '40000'), ('5', '102 south lane', 'Sky,Han, '100000');</v>
+      </c>
+      <c r="I6" s="3" t="str">
+        <f>$G$1&amp;$H6</f>
+        <v>insert into Department (EMPL_ID, E_ADDR, E_NAME, E_SALARY) values ('1', '98 south lane', 'smith,john, '40000'), ('2', '99 south lane', 'smith,jonny, '60000'), ('3', '100 south lane', 'Kinddy,Mark, '50000'), ('4', '101 south lane', 'Oohhun, Lone , '40000'), ('5', '102 south lane', 'Sky,Han, '100000');</v>
       </c>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="4294967293" verticalDpi="4294967293" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CB197E-4B1F-4606-AF84-9E91AC0F1490}">
-  <dimension ref="A1:F1"/>
+  <dimension ref="A1:K4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F5" sqref="F5"/>
+      <selection activeCell="I2" sqref="I2"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="2" max="2" width="13.88671875" customWidth="1"/>
+    <col min="2" max="2" width="13.85546875" customWidth="1"/>
     <col min="3" max="3" width="11" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="13.42578125" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>57</v>
+      </c>
+      <c r="B1" t="s">
+        <v>58</v>
+      </c>
+      <c r="C1" t="s">
+        <v>59</v>
+      </c>
+      <c r="D1" t="s">
+        <v>60</v>
+      </c>
+      <c r="E1" t="s">
+        <v>61</v>
+      </c>
+      <c r="F1" s="4" t="s">
+        <v>62</v>
+      </c>
+      <c r="I1" t="str">
+        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;E1&amp;", "&amp;F1&amp;") values "</f>
+        <v xml:space="preserve">insert into Department (LOC_ID, L_ADDR, L_PHONE, L_INCOME, L_NAME, PRICE_CHK) values </v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>101</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>10</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>5124891152</v>
       </c>
-      <c r="D1">
+      <c r="D2">
         <v>9846000</v>
       </c>
-      <c r="E1" t="s">
+      <c r="E2" t="s">
         <v>11</v>
       </c>
-      <c r="F1">
+      <c r="F2" s="4">
         <v>9840000</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"')"</f>
+        <v>('101', '126 that street', '5124891152', '9846000', 'the pink Depot by fengroup', '9840000')</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(ISBLANK(I3),I2&amp;";",I2&amp;", "&amp;I3)</f>
+        <v>('101', '126 that street', '5124891152', '9846000', 'the pink Depot by fengroup', '9840000');</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K4" s="3" t="str">
+        <f>$I$1&amp;$J2</f>
+        <v>insert into Department (LOC_ID, L_ADDR, L_PHONE, L_INCOME, L_NAME, PRICE_CHK) values ('101', '126 that street', '5124891152', '9846000', 'the pink Depot by fengroup', '9840000');</v>
       </c>
     </row>
   </sheetData>
@@ -624,40 +878,84 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D723CFE-F6D6-437B-A09E-F4C9D56AFC57}">
-  <dimension ref="A1:D2"/>
+  <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D1" sqref="D1"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1:I3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="8" max="8" width="28.140625" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>63</v>
+      </c>
+      <c r="B1" t="s">
+        <v>64</v>
+      </c>
+      <c r="C1" t="s">
+        <v>65</v>
+      </c>
+      <c r="D1" t="s">
+        <v>66</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", " &amp;D1&amp;") values "</f>
+        <v xml:space="preserve">insert into Department (BUY_DATE, B_ID, B_NAME, CAR_INFO) values </v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2" s="1">
         <v>43833</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1" t="s">
+      <c r="C2" t="s">
         <v>12</v>
       </c>
-      <c r="D1" t="s">
+      <c r="D2" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="1">
+      <c r="G2" t="str">
+        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;", '"&amp;D2&amp;"')"</f>
+        <v>('43833', '1', 'Smith,Lane , 'RCA,159648,80000')</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(ISBLANK(G3),G2&amp;";",G2&amp;", "&amp;G3)</f>
+        <v>('43833', '1', 'Smith,Lane , 'RCA,159648,80000'), ('43834', '2', 'Jack,Train, '4-o's,34Fe5e,5000')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3" s="1">
         <v>43834</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2" t="s">
+      <c r="C3" t="s">
         <v>15</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D3" t="s">
         <v>14</v>
+      </c>
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G6" si="0">"('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;", '"&amp;D3&amp;"')"</f>
+        <v>('43834', '2', 'Jack,Train, '4-o's,34Fe5e,5000')</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(ISBLANK(G4),H2&amp;";",H2&amp;", "&amp;G4)</f>
+        <v>('43833', '1', 'Smith,Lane , 'RCA,159648,80000'), ('43834', '2', 'Jack,Train, '4-o's,34Fe5e,5000');</v>
+      </c>
+      <c r="I3" s="3" t="str">
+        <f t="shared" ref="I3:I5" si="1">$G$1&amp;$H3</f>
+        <v>insert into Department (BUY_DATE, B_ID, B_NAME, CAR_INFO) values ('43833', '1', 'Smith,Lane , 'RCA,159648,80000'), ('43834', '2', 'Jack,Train, '4-o's,34Fe5e,5000');</v>
       </c>
     </row>
   </sheetData>
@@ -668,45 +966,198 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDE4EDE-D027-4418-91C1-9FED40FC5F8B}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:G35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E1" sqref="E1:G4"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="8.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="10.28515625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="57.140625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="60.28515625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="116.85546875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>48</v>
+      </c>
+      <c r="B1" t="s">
+        <v>49</v>
+      </c>
+      <c r="C1" t="s">
+        <v>50</v>
+      </c>
+      <c r="E1" t="str">
+        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;") values "</f>
+        <v xml:space="preserve">insert into Department (DEPT_ID, D_NAME, D_SALARY) values </v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>11</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>16</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>10000</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="E2" t="str">
+        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;"')"</f>
+        <v>('11', 'sells_floor', '10000')</v>
+      </c>
+      <c r="F2" t="str">
+        <f>IF(ISBLANK(E3),E2&amp;";",E2&amp;", "&amp;E3)</f>
+        <v>('11', 'sells_floor', '10000'), ('12', 'parts', '5000')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>12</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>17</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>5000</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="E3" t="str">
+        <f t="shared" ref="E3:E4" si="0">"('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"')"</f>
+        <v>('12', 'parts', '5000')</v>
+      </c>
+      <c r="F3" t="str">
+        <f>IF(ISBLANK(E4),F2&amp;";",F2&amp;", "&amp;E4)</f>
+        <v>('11', 'sells_floor', '10000'), ('12', 'parts', '5000'), ('13', 'repair', '300')</v>
+      </c>
+      <c r="G3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>13</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>18</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>300</v>
+      </c>
+      <c r="E4" t="str">
+        <f t="shared" si="0"/>
+        <v>('13', 'repair', '300')</v>
+      </c>
+      <c r="F4" t="str">
+        <f>IF((E5=""),F3&amp;";",F3&amp;", "&amp;E5)</f>
+        <v>('11', 'sells_floor', '10000'), ('12', 'parts', '5000'), ('13', 'repair', '300');</v>
+      </c>
+      <c r="G4" s="3" t="str">
+        <f>$E$1&amp;$F4</f>
+        <v>insert into Department (DEPT_ID, D_NAME, D_SALARY) values ('11', 'sells_floor', '10000'), ('12', 'parts', '5000'), ('13', 'repair', '300');</v>
+      </c>
+    </row>
+    <row r="20" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E20" t="str">
+        <f t="shared" ref="E20:E35" si="1">IF(ISBLANK(A20)," ","('"&amp;A20&amp;"', '"&amp;B20&amp;"', '"&amp;C20&amp;"')")</f>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="21" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E21" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="22" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E22" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="23" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E23" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="24" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E24" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="25" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E25" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="26" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E26" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="27" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E27" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="28" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E28" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="29" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E29" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="30" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E30" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="31" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E31" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="32" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E32" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="33" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E33" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="34" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E34" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
+      </c>
+    </row>
+    <row r="35" spans="5:5" x14ac:dyDescent="0.25">
+      <c r="E35" t="str">
+        <f t="shared" si="1"/>
+        <v xml:space="preserve"> </v>
       </c>
     </row>
   </sheetData>
@@ -716,64 +1167,126 @@
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0808F359-0AA3-47B2-B546-0A8F08FB0DA5}">
-  <dimension ref="A1:E3"/>
+  <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="D2" sqref="D2"/>
+      <selection activeCell="I18" sqref="I18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="9" max="9" width="8.5703125" customWidth="1"/>
+    <col min="10" max="10" width="6.42578125" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>67</v>
+      </c>
+      <c r="B1" t="s">
+        <v>68</v>
+      </c>
+      <c r="C1" t="s">
+        <v>69</v>
+      </c>
+      <c r="D1" t="s">
+        <v>70</v>
+      </c>
+      <c r="E1" t="s">
+        <v>71</v>
+      </c>
+      <c r="I1" t="str">
+        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;E1&amp;", "&amp;F1&amp;") values "</f>
+        <v xml:space="preserve">insert into Department (NEW_USED, CAR_NUM, COMPANY, VIN_NUM, CAR_PRICE, ) values </v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>19</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>202</v>
-      </c>
-      <c r="C1" t="s">
-        <v>20</v>
-      </c>
-      <c r="D1" t="s">
-        <v>23</v>
-      </c>
-      <c r="E1">
-        <v>59999</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>21</v>
-      </c>
-      <c r="B2">
-        <v>203</v>
       </c>
       <c r="C2" t="s">
         <v>20</v>
       </c>
       <c r="D2" t="s">
+        <v>23</v>
+      </c>
+      <c r="E2">
+        <v>59999</v>
+      </c>
+      <c r="I2" t="str">
+        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"')"</f>
+        <v>('New', '202', '4-o's', '22eft57-a', '59999')</v>
+      </c>
+      <c r="J2" t="str">
+        <f>IF(ISBLANK(I3),I2&amp;";",I2&amp;", "&amp;I3)</f>
+        <v>('New', '202', '4-o's', '22eft57-a', '59999'), ('Used ', '203', '4-o's', 'ssfj69ij-a', '29999')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B3">
+        <v>203</v>
+      </c>
+      <c r="C3" t="s">
+        <v>20</v>
+      </c>
+      <c r="D3" t="s">
         <v>24</v>
       </c>
-      <c r="E2">
+      <c r="E3">
         <v>29999</v>
       </c>
-    </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="I3" t="str">
+        <f t="shared" ref="I3:I4" si="0">"('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"')"</f>
+        <v>('Used ', '203', '4-o's', 'ssfj69ij-a', '29999')</v>
+      </c>
+      <c r="J3" t="str">
+        <f>IF(ISBLANK(I4),J2&amp;";",J2&amp;", "&amp;I4)</f>
+        <v>('New', '202', '4-o's', '22eft57-a', '59999'), ('Used ', '203', '4-o's', 'ssfj69ij-a', '29999'), ('New', '204', 'RCA', '33gthry7-s', '39999')</v>
+      </c>
+      <c r="K3" t="s">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="4" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>19</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>204</v>
       </c>
-      <c r="C3" t="s">
+      <c r="C4" t="s">
         <v>22</v>
       </c>
-      <c r="D3" t="s">
+      <c r="D4" t="s">
         <v>25</v>
       </c>
-      <c r="E3">
+      <c r="E4">
         <v>39999</v>
       </c>
+      <c r="I4" t="str">
+        <f>"('"&amp;A4&amp;"', '"&amp;B4&amp;"', '"&amp;C4&amp;"', '"&amp;D4&amp;"', '"&amp;E4&amp;"')"</f>
+        <v>('New', '204', 'RCA', '33gthry7-s', '39999')</v>
+      </c>
+      <c r="J4" t="str">
+        <f>IF(ISBLANK(I5),J3&amp;";",J3&amp;", "&amp;I5)</f>
+        <v>('New', '202', '4-o's', '22eft57-a', '59999'), ('Used ', '203', '4-o's', 'ssfj69ij-a', '29999'), ('New', '204', 'RCA', '33gthry7-s', '39999');</v>
+      </c>
+      <c r="K4" s="3" t="str">
+        <f>$I$1&amp;$J4</f>
+        <v>insert into Department (NEW_USED, CAR_NUM, COMPANY, VIN_NUM, CAR_PRICE, ) values ('New', '202', '4-o's', '22eft57-a', '59999'), ('Used ', '203', '4-o's', 'ssfj69ij-a', '29999'), ('New', '204', 'RCA', '33gthry7-s', '39999');</v>
+      </c>
+    </row>
+    <row r="5" spans="1:11" x14ac:dyDescent="0.25">
+      <c r="K5" s="3"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -782,232 +1295,414 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{5ACF3583-C0BC-4315-B1D9-85B57C3776E1}">
-  <dimension ref="A1:C20"/>
+  <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C10" sqref="C10"/>
+      <selection activeCell="G1" sqref="G1:I21"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>72</v>
+      </c>
+      <c r="B1" t="s">
+        <v>73</v>
+      </c>
+      <c r="C1" t="s">
+        <v>74</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", " &amp;D1&amp;") values "</f>
+        <v xml:space="preserve">insert into Department (PART_NAME, PART_NUM, PART_PRICE, ) values </v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
         <v>26</v>
       </c>
-      <c r="B1">
+      <c r="B2">
         <v>1</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>100</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
+      <c r="G2" t="str">
+        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;"')"</f>
+        <v>('battery', '1', '100')</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(ISBLANK(G3),G2&amp;";",G2&amp;", "&amp;G3)</f>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
         <v>27</v>
       </c>
-      <c r="B2">
+      <c r="B3">
         <v>2</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>25</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G21" si="0">"('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"')"</f>
+        <v>('brakes pads', '2', '25')</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(ISBLANK(G4),H2&amp;";",H2&amp;", "&amp;G4)</f>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
         <v>28</v>
       </c>
-      <c r="B3">
+      <c r="B4">
         <v>3</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>5</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>('spark plugs', '3', '5')</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H21" si="1">IF(ISBLANK(G5),H3&amp;";",H3&amp;", "&amp;G5)</f>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10')</v>
+      </c>
+    </row>
+    <row r="5" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
         <v>29</v>
       </c>
-      <c r="B4">
+      <c r="B5">
         <v>4</v>
       </c>
-      <c r="C4">
+      <c r="C5">
         <v>10</v>
       </c>
-    </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
+      <c r="G5" t="str">
+        <f t="shared" si="0"/>
+        <v>('fuel injector ', '4', '10')</v>
+      </c>
+      <c r="H5" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45')</v>
+      </c>
+    </row>
+    <row r="6" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
         <v>30</v>
       </c>
-      <c r="B5">
+      <c r="B6">
         <v>5</v>
       </c>
-      <c r="C5">
+      <c r="C6">
         <v>45</v>
       </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
+      <c r="G6" t="str">
+        <f t="shared" si="0"/>
+        <v>('radiator', '5', '45')</v>
+      </c>
+      <c r="H6" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50')</v>
+      </c>
+    </row>
+    <row r="7" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
         <v>31</v>
       </c>
-      <c r="B6">
+      <c r="B7">
         <v>6</v>
       </c>
-      <c r="C6">
+      <c r="C7">
         <v>50</v>
       </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
+      <c r="G7" t="str">
+        <f t="shared" si="0"/>
+        <v>('car jark', '6', '50')</v>
+      </c>
+      <c r="H7" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5')</v>
+      </c>
+    </row>
+    <row r="8" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
         <v>32</v>
       </c>
-      <c r="B7">
+      <c r="B8">
         <v>7</v>
-      </c>
-      <c r="C7">
-        <v>0.5</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>33</v>
-      </c>
-      <c r="B8">
-        <v>8</v>
       </c>
       <c r="C8">
         <v>0.5</v>
       </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G8" t="str">
+        <f t="shared" si="0"/>
+        <v>('nuts ', '7', '0.5')</v>
+      </c>
+      <c r="H8" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5')</v>
+      </c>
+    </row>
+    <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
+        <v>33</v>
+      </c>
+      <c r="B9">
+        <v>8</v>
+      </c>
+      <c r="C9">
+        <v>0.5</v>
+      </c>
+      <c r="G9" t="str">
+        <f t="shared" si="0"/>
+        <v>('bolts', '8', '0.5')</v>
+      </c>
+      <c r="H9" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150')</v>
+      </c>
+    </row>
+    <row r="10" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
         <v>34</v>
       </c>
-      <c r="B9">
+      <c r="B10">
         <v>9</v>
       </c>
-      <c r="C9">
+      <c r="C10">
         <v>150</v>
       </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
+      <c r="G10" t="str">
+        <f t="shared" si="0"/>
+        <v>('clutch', '9', '150')</v>
+      </c>
+      <c r="H10" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23')</v>
+      </c>
+    </row>
+    <row r="11" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
         <v>35</v>
       </c>
-      <c r="B10">
+      <c r="B11">
         <v>10</v>
       </c>
-      <c r="C10">
+      <c r="C11">
         <v>23</v>
       </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
+      <c r="G11" t="str">
+        <f t="shared" si="0"/>
+        <v>('air filter', '10', '23')</v>
+      </c>
+      <c r="H11" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200')</v>
+      </c>
+    </row>
+    <row r="12" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
         <v>36</v>
       </c>
-      <c r="B11">
+      <c r="B12">
         <v>11</v>
       </c>
-      <c r="C11">
+      <c r="C12">
         <v>200</v>
       </c>
-    </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A12" t="s">
+      <c r="G12" t="str">
+        <f t="shared" si="0"/>
+        <v>('muffler', '11', '200')</v>
+      </c>
+      <c r="H12" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150')</v>
+      </c>
+    </row>
+    <row r="13" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
         <v>37</v>
       </c>
-      <c r="B12">
+      <c r="B13">
         <v>12</v>
       </c>
-      <c r="C12">
+      <c r="C13">
         <v>150</v>
       </c>
-    </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" t="s">
+      <c r="G13" t="str">
+        <f t="shared" si="0"/>
+        <v>('catalyic converter', '12', '150')</v>
+      </c>
+      <c r="H13" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300')</v>
+      </c>
+    </row>
+    <row r="14" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
         <v>38</v>
       </c>
-      <c r="B13">
+      <c r="B14">
         <v>13</v>
       </c>
-      <c r="C13">
+      <c r="C14">
         <v>300</v>
       </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" t="s">
+      <c r="G14" t="str">
+        <f t="shared" si="0"/>
+        <v>('alternator', '13', '300')</v>
+      </c>
+      <c r="H14" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255')</v>
+      </c>
+    </row>
+    <row r="15" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
         <v>39</v>
       </c>
-      <c r="B14">
+      <c r="B15">
         <v>14</v>
       </c>
-      <c r="C14">
+      <c r="C15">
         <v>255</v>
       </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" t="s">
+      <c r="G15" t="str">
+        <f t="shared" si="0"/>
+        <v>('seats', '14', '255')</v>
+      </c>
+      <c r="H15" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8')</v>
+      </c>
+    </row>
+    <row r="16" spans="1:8" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
         <v>40</v>
       </c>
-      <c r="B15">
+      <c r="B16">
         <v>15</v>
       </c>
-      <c r="C15">
+      <c r="C16">
         <v>8</v>
       </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" t="s">
+      <c r="G16" t="str">
+        <f t="shared" si="0"/>
+        <v>('head light blub ', '15', '8')</v>
+      </c>
+      <c r="H16" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15')</v>
+      </c>
+    </row>
+    <row r="17" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
         <v>41</v>
       </c>
-      <c r="B16">
+      <c r="B17">
         <v>16</v>
       </c>
-      <c r="C16">
+      <c r="C17">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" t="s">
+      <c r="G17" t="str">
+        <f t="shared" si="0"/>
+        <v>('oil filter ', '16', '15')</v>
+      </c>
+      <c r="H17" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15'), ('fuel filter', '17', '5')</v>
+      </c>
+    </row>
+    <row r="18" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
         <v>42</v>
       </c>
-      <c r="B17">
+      <c r="B18">
         <v>17</v>
-      </c>
-      <c r="C17">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A18" t="s">
-        <v>43</v>
-      </c>
-      <c r="B18">
-        <v>18</v>
       </c>
       <c r="C18">
         <v>5</v>
       </c>
-    </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="G18" t="str">
+        <f t="shared" si="0"/>
+        <v>('fuel filter', '17', '5')</v>
+      </c>
+      <c r="H18" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15'), ('fuel filter', '17', '5'), ('fues', '18', '5')</v>
+      </c>
+    </row>
+    <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
+        <v>43</v>
+      </c>
+      <c r="B19">
+        <v>18</v>
+      </c>
+      <c r="C19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="str">
+        <f t="shared" si="0"/>
+        <v>('fues', '18', '5')</v>
+      </c>
+      <c r="H19" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15'), ('fuel filter', '17', '5'), ('fues', '18', '5'), ('brake disc', '19', '30')</v>
+      </c>
+    </row>
+    <row r="20" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
         <v>44</v>
       </c>
-      <c r="B19">
+      <c r="B20">
         <v>19</v>
       </c>
-      <c r="C19">
+      <c r="C20">
         <v>30</v>
       </c>
-    </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" t="s">
+      <c r="G20" t="str">
+        <f t="shared" si="0"/>
+        <v>('brake disc', '19', '30')</v>
+      </c>
+      <c r="H20" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15'), ('fuel filter', '17', '5'), ('fues', '18', '5'), ('brake disc', '19', '30'), ('keys', '20', '500')</v>
+      </c>
+    </row>
+    <row r="21" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
         <v>45</v>
       </c>
-      <c r="B20">
+      <c r="B21">
         <v>20</v>
       </c>
-      <c r="C20">
+      <c r="C21">
         <v>500</v>
+      </c>
+      <c r="G21" t="str">
+        <f t="shared" si="0"/>
+        <v>('keys', '20', '500')</v>
+      </c>
+      <c r="H21" t="str">
+        <f t="shared" si="1"/>
+        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15'), ('fuel filter', '17', '5'), ('fues', '18', '5'), ('brake disc', '19', '30'), ('keys', '20', '500');</v>
+      </c>
+      <c r="I21" s="3" t="str">
+        <f t="shared" ref="I3:I21" si="2">$G$1&amp;$H21</f>
+        <v>insert into Department (PART_NAME, PART_NUM, PART_PRICE, ) values ('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15'), ('fuel filter', '17', '5'), ('fues', '18', '5'), ('brake disc', '19', '30'), ('keys', '20', '500');</v>
       </c>
     </row>
   </sheetData>
@@ -1018,45 +1713,91 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F65F2D-A69E-4948-9292-C25AF56E58C1}">
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C4" sqref="C4"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="I11" sqref="I11"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A1">
+    <row r="1" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>75</v>
+      </c>
+      <c r="B1" t="s">
+        <v>76</v>
+      </c>
+      <c r="C1" t="s">
+        <v>77</v>
+      </c>
+      <c r="G1" t="str">
+        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", " &amp;D1&amp;") values "</f>
+        <v xml:space="preserve">insert into Department (REPAIR_NO, VIN_NO, REPAIR_PRICE, ) values </v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="2" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A2">
         <v>1</v>
       </c>
-      <c r="B1" t="s">
+      <c r="B2" t="s">
         <v>46</v>
       </c>
-      <c r="C1">
+      <c r="C2">
         <v>3000</v>
       </c>
-    </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A2">
+      <c r="G2" t="str">
+        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;"')"</f>
+        <v>('1', '4reht6', '3000')</v>
+      </c>
+      <c r="H2" t="str">
+        <f>IF(ISBLANK(G3),G2&amp;";",G2&amp;", "&amp;G3)</f>
+        <v>('1', '4reht6', '3000'), ('2', 'ssfj69ij-a', '500')</v>
+      </c>
+    </row>
+    <row r="3" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A3">
         <v>2</v>
       </c>
-      <c r="B2" t="s">
+      <c r="B3" t="s">
         <v>24</v>
       </c>
-      <c r="C2">
+      <c r="C3">
         <v>500</v>
       </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A3">
+      <c r="G3" t="str">
+        <f t="shared" ref="G3:G21" si="0">"('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"')"</f>
+        <v>('2', 'ssfj69ij-a', '500')</v>
+      </c>
+      <c r="H3" t="str">
+        <f>IF(ISBLANK(G4),H2&amp;";",H2&amp;", "&amp;G4)</f>
+        <v>('1', '4reht6', '3000'), ('2', 'ssfj69ij-a', '500'), ('3', 'futis', '150')</v>
+      </c>
+    </row>
+    <row r="4" spans="1:9" x14ac:dyDescent="0.25">
+      <c r="A4">
         <v>3</v>
       </c>
-      <c r="B3" t="s">
+      <c r="B4" t="s">
         <v>47</v>
       </c>
-      <c r="C3">
+      <c r="C4">
         <v>150</v>
+      </c>
+      <c r="G4" t="str">
+        <f t="shared" si="0"/>
+        <v>('3', 'futis', '150')</v>
+      </c>
+      <c r="H4" t="str">
+        <f t="shared" ref="H4:H21" si="1">IF(ISBLANK(G5),H3&amp;";",H3&amp;", "&amp;G5)</f>
+        <v>('1', '4reht6', '3000'), ('2', 'ssfj69ij-a', '500'), ('3', 'futis', '150');</v>
+      </c>
+      <c r="I4" s="3" t="str">
+        <f>$G$1&amp;$H4</f>
+        <v>insert into Department (REPAIR_NO, VIN_NO, REPAIR_PRICE, ) values ('1', '4reht6', '3000'), ('2', 'ssfj69ij-a', '500'), ('3', 'futis', '150');</v>
       </c>
     </row>
   </sheetData>

--- a/data.xlsx
+++ b/data.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Jonathan\Downloads\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9C28EFC5-9E25-48C3-BA7D-FBE6BA918CDA}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{0749A570-AF97-4BE0-99A9-46FB5C75C960}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="6735" yWindow="4695" windowWidth="55995" windowHeight="11400" firstSheet="2" activeTab="6" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="employee" sheetId="1" r:id="rId1"/>
@@ -20,6 +20,7 @@
     <sheet name="inventory" sheetId="5" r:id="rId5"/>
     <sheet name="Parts" sheetId="6" r:id="rId6"/>
     <sheet name="Car" sheetId="7" r:id="rId7"/>
+    <sheet name="extra" sheetId="11" r:id="rId8"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="78">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="94" uniqueCount="83">
   <si>
     <t>98 south lane</t>
   </si>
@@ -83,9 +84,6 @@
     <t>RCA,159648,80000</t>
   </si>
   <si>
-    <t>4-o's,34Fe5e,5000</t>
-  </si>
-  <si>
     <t>Jack,Train</t>
   </si>
   <si>
@@ -101,9 +99,6 @@
     <t>New</t>
   </si>
   <si>
-    <t>4-o's</t>
-  </si>
-  <si>
     <t xml:space="preserve">Used </t>
   </si>
   <si>
@@ -185,94 +180,115 @@
     <t>futis</t>
   </si>
   <si>
-    <t>DEPT_ID</t>
-  </si>
-  <si>
-    <t>D_NAME</t>
-  </si>
-  <si>
-    <t>D_SALARY</t>
-  </si>
-  <si>
-    <t>EMPL_ID</t>
-  </si>
-  <si>
-    <t>E_ADDR</t>
-  </si>
-  <si>
-    <t>E_NAME</t>
-  </si>
-  <si>
-    <t>E_SALARY</t>
-  </si>
-  <si>
     <t>#top is different from the rest</t>
   </si>
   <si>
     <t>Last digit will change if more data is inputed #Manual</t>
   </si>
   <si>
-    <t>LOC_ID</t>
-  </si>
-  <si>
-    <t>L_ADDR</t>
-  </si>
-  <si>
-    <t>L_PHONE</t>
-  </si>
-  <si>
-    <t>L_INCOME</t>
-  </si>
-  <si>
-    <t>L_NAME</t>
-  </si>
-  <si>
     <t>PRICE_CHK</t>
   </si>
   <si>
-    <t>BUY_DATE</t>
-  </si>
-  <si>
-    <t>B_ID</t>
-  </si>
-  <si>
-    <t>B_NAME</t>
-  </si>
-  <si>
-    <t>CAR_INFO</t>
-  </si>
-  <si>
-    <t>NEW_USED</t>
-  </si>
-  <si>
-    <t>CAR_NUM</t>
-  </si>
-  <si>
-    <t>COMPANY</t>
-  </si>
-  <si>
     <t>VIN_NUM</t>
   </si>
   <si>
-    <t>CAR_PRICE</t>
-  </si>
-  <si>
-    <t>PART_NAME</t>
-  </si>
-  <si>
-    <t>PART_NUM</t>
-  </si>
-  <si>
-    <t>PART_PRICE</t>
-  </si>
-  <si>
-    <t>REPAIR_NO</t>
-  </si>
-  <si>
-    <t>VIN_NO</t>
-  </si>
-  <si>
-    <t>REPAIR_PRICE</t>
+    <t>empl_id</t>
+  </si>
+  <si>
+    <t>e_addr</t>
+  </si>
+  <si>
+    <t>e_name</t>
+  </si>
+  <si>
+    <t>e_salary</t>
+  </si>
+  <si>
+    <t>l_id</t>
+  </si>
+  <si>
+    <t>l_addr</t>
+  </si>
+  <si>
+    <t>l_phnum</t>
+  </si>
+  <si>
+    <t>l_name</t>
+  </si>
+  <si>
+    <t>l_income</t>
+  </si>
+  <si>
+    <t>date</t>
+  </si>
+  <si>
+    <t>b_id</t>
+  </si>
+  <si>
+    <t>b_name</t>
+  </si>
+  <si>
+    <t>car_info</t>
+  </si>
+  <si>
+    <t>4-os,34Fe5e,5000</t>
+  </si>
+  <si>
+    <t>Dept_id</t>
+  </si>
+  <si>
+    <t>d_name</t>
+  </si>
+  <si>
+    <t>d_salary</t>
+  </si>
+  <si>
+    <t>works for</t>
+  </si>
+  <si>
+    <t>buy_from</t>
+  </si>
+  <si>
+    <t>sells</t>
+  </si>
+  <si>
+    <t>has</t>
+  </si>
+  <si>
+    <t>repairs</t>
+  </si>
+  <si>
+    <t>new_used</t>
+  </si>
+  <si>
+    <t>car_num</t>
+  </si>
+  <si>
+    <t>4-os</t>
+  </si>
+  <si>
+    <t>company</t>
+  </si>
+  <si>
+    <t>vin_num</t>
+  </si>
+  <si>
+    <t>car_price</t>
+  </si>
+  <si>
+    <t>part_name</t>
+  </si>
+  <si>
+    <t>part_num</t>
+  </si>
+  <si>
+    <t>part_price</t>
+  </si>
+  <si>
+    <t>repair_num</t>
+  </si>
+  <si>
+    <t>repair_price</t>
   </si>
 </sst>
 </file>
@@ -638,7 +654,7 @@
   <dimension ref="A1:I6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="E39" sqref="E39"/>
+      <selection activeCell="A24" sqref="A24"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -650,23 +666,23 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" t="s">
         <v>51</v>
       </c>
-      <c r="B1" t="s">
+      <c r="C1" t="s">
         <v>52</v>
       </c>
-      <c r="C1" t="s">
+      <c r="D1" t="s">
         <v>53</v>
       </c>
-      <c r="D1" t="s">
-        <v>54</v>
-      </c>
       <c r="G1" t="str">
-        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", " &amp;D1&amp;") values "</f>
-        <v xml:space="preserve">insert into Department (EMPL_ID, E_ADDR, E_NAME, E_SALARY) values </v>
+        <f>"insert into Employee (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", " &amp;D1&amp;") values "</f>
+        <v xml:space="preserve">insert into Employee (empl_id, e_addr, e_name, e_salary) values </v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -683,12 +699,12 @@
         <v>40000</v>
       </c>
       <c r="G2" t="str">
-        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;", '"&amp;D2&amp;"')"</f>
-        <v>('1', '98 south lane', 'smith,john, '40000')</v>
+        <f>"("&amp;A2&amp;", '"&amp;B2&amp;"', '"&amp;C2&amp;"', "&amp;D2&amp;")"</f>
+        <v>(1, '98 south lane', 'smith,john', 40000)</v>
       </c>
       <c r="H2" t="str">
         <f>IF(ISBLANK(G3),G2&amp;";",G2&amp;", "&amp;G3)</f>
-        <v>('1', '98 south lane', 'smith,john, '40000'), ('2', '99 south lane', 'smith,jonny, '60000')</v>
+        <v>(1, '98 south lane', 'smith,john', 40000), (2, '99 south lane', 'smith,jonny', 60000)</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -705,12 +721,12 @@
         <v>60000</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G6" si="0">"('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;", '"&amp;D3&amp;"')"</f>
-        <v>('2', '99 south lane', 'smith,jonny, '60000')</v>
+        <f t="shared" ref="G3:G6" si="0">"("&amp;A3&amp;", '"&amp;B3&amp;"', '"&amp;C3&amp;"', "&amp;D3&amp;")"</f>
+        <v>(2, '99 south lane', 'smith,jonny', 60000)</v>
       </c>
       <c r="H3" t="str">
         <f>IF(ISBLANK(G4),H2&amp;";",H2&amp;", "&amp;G4)</f>
-        <v>('1', '98 south lane', 'smith,john, '40000'), ('2', '99 south lane', 'smith,jonny, '60000'), ('3', '100 south lane', 'Kinddy,Mark, '50000')</v>
+        <v>(1, '98 south lane', 'smith,john', 40000), (2, '99 south lane', 'smith,jonny', 60000), (3, '100 south lane', 'Kinddy,Mark', 50000)</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -728,11 +744,11 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>('3', '100 south lane', 'Kinddy,Mark, '50000')</v>
+        <v>(3, '100 south lane', 'Kinddy,Mark', 50000)</v>
       </c>
       <c r="H4" t="str">
         <f>IF((G5=""),H3&amp;";",H3&amp;", "&amp;G5)</f>
-        <v>('1', '98 south lane', 'smith,john, '40000'), ('2', '99 south lane', 'smith,jonny, '60000'), ('3', '100 south lane', 'Kinddy,Mark, '50000'), ('4', '101 south lane', 'Oohhun, Lone , '40000')</v>
+        <v>(1, '98 south lane', 'smith,john', 40000), (2, '99 south lane', 'smith,jonny', 60000), (3, '100 south lane', 'Kinddy,Mark', 50000), (4, '101 south lane', 'Oohhun, Lone ', 40000)</v>
       </c>
     </row>
     <row r="5" spans="1:9" x14ac:dyDescent="0.25">
@@ -750,11 +766,11 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>('4', '101 south lane', 'Oohhun, Lone , '40000')</v>
+        <v>(4, '101 south lane', 'Oohhun, Lone ', 40000)</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" ref="H5:H6" si="1">IF((G6=""),H4&amp;";",H4&amp;", "&amp;G6)</f>
-        <v>('1', '98 south lane', 'smith,john, '40000'), ('2', '99 south lane', 'smith,jonny, '60000'), ('3', '100 south lane', 'Kinddy,Mark, '50000'), ('4', '101 south lane', 'Oohhun, Lone , '40000'), ('5', '102 south lane', 'Sky,Han, '100000')</v>
+        <v>(1, '98 south lane', 'smith,john', 40000), (2, '99 south lane', 'smith,jonny', 60000), (3, '100 south lane', 'Kinddy,Mark', 50000), (4, '101 south lane', 'Oohhun, Lone ', 40000), (5, '102 south lane', 'Sky,Han', 100000)</v>
       </c>
     </row>
     <row r="6" spans="1:9" x14ac:dyDescent="0.25">
@@ -772,15 +788,15 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>('5', '102 south lane', 'Sky,Han, '100000')</v>
+        <v>(5, '102 south lane', 'Sky,Han', 100000)</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>('1', '98 south lane', 'smith,john, '40000'), ('2', '99 south lane', 'smith,jonny, '60000'), ('3', '100 south lane', 'Kinddy,Mark, '50000'), ('4', '101 south lane', 'Oohhun, Lone , '40000'), ('5', '102 south lane', 'Sky,Han, '100000');</v>
+        <v>(1, '98 south lane', 'smith,john', 40000), (2, '99 south lane', 'smith,jonny', 60000), (3, '100 south lane', 'Kinddy,Mark', 50000), (4, '101 south lane', 'Oohhun, Lone ', 40000), (5, '102 south lane', 'Sky,Han', 100000);</v>
       </c>
       <c r="I6" s="3" t="str">
         <f>$G$1&amp;$H6</f>
-        <v>insert into Department (EMPL_ID, E_ADDR, E_NAME, E_SALARY) values ('1', '98 south lane', 'smith,john, '40000'), ('2', '99 south lane', 'smith,jonny, '60000'), ('3', '100 south lane', 'Kinddy,Mark, '50000'), ('4', '101 south lane', 'Oohhun, Lone , '40000'), ('5', '102 south lane', 'Sky,Han, '100000');</v>
+        <v>insert into Employee (empl_id, e_addr, e_name, e_salary) values (1, '98 south lane', 'smith,john', 40000), (2, '99 south lane', 'smith,jonny', 60000), (3, '100 south lane', 'Kinddy,Mark', 50000), (4, '101 south lane', 'Oohhun, Lone ', 40000), (5, '102 south lane', 'Sky,Han', 100000);</v>
       </c>
     </row>
   </sheetData>
@@ -794,8 +810,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{B9CB197E-4B1F-4606-AF84-9E91AC0F1490}">
   <dimension ref="A1:K4"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="I2" sqref="I2"/>
+    <sheetView topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -807,29 +823,29 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>54</v>
+      </c>
+      <c r="B1" t="s">
+        <v>55</v>
+      </c>
+      <c r="C1" t="s">
+        <v>56</v>
+      </c>
+      <c r="D1" t="s">
+        <v>58</v>
+      </c>
+      <c r="E1" t="s">
         <v>57</v>
       </c>
-      <c r="B1" t="s">
-        <v>58</v>
-      </c>
-      <c r="C1" t="s">
-        <v>59</v>
-      </c>
-      <c r="D1" t="s">
-        <v>60</v>
-      </c>
-      <c r="E1" t="s">
-        <v>61</v>
-      </c>
       <c r="F1" s="4" t="s">
-        <v>62</v>
+        <v>48</v>
       </c>
       <c r="I1" t="str">
-        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;E1&amp;", "&amp;F1&amp;") values "</f>
-        <v xml:space="preserve">insert into Department (LOC_ID, L_ADDR, L_PHONE, L_INCOME, L_NAME, PRICE_CHK) values </v>
+        <f>"insert into Location (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;E1&amp;", "&amp;F1&amp;") values "</f>
+        <v xml:space="preserve">insert into Location (l_id, l_addr, l_phnum, l_income, l_name, PRICE_CHK) values </v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" ht="14.25" customHeight="1" x14ac:dyDescent="0.25">
@@ -852,23 +868,23 @@
         <v>9840000</v>
       </c>
       <c r="I2" t="str">
-        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"', '"&amp;F2&amp;"')"</f>
-        <v>('101', '126 that street', '5124891152', '9846000', 'the pink Depot by fengroup', '9840000')</v>
+        <f>"("&amp;A2&amp;", '"&amp;B2&amp;"', "&amp;C2&amp;", "&amp;D2&amp;", '"&amp;E2&amp;"', '"&amp;F2&amp;"')"</f>
+        <v>(101, '126 that street', 5124891152, 9846000, 'the pink Depot by fengroup', '9840000')</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISBLANK(I3),I2&amp;";",I2&amp;", "&amp;I3)</f>
-        <v>('101', '126 that street', '5124891152', '9846000', 'the pink Depot by fengroup', '9840000');</v>
+        <v>(101, '126 that street', 5124891152, 9846000, 'the pink Depot by fengroup', '9840000');</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="K4" s="3" t="str">
         <f>$I$1&amp;$J2</f>
-        <v>insert into Department (LOC_ID, L_ADDR, L_PHONE, L_INCOME, L_NAME, PRICE_CHK) values ('101', '126 that street', '5124891152', '9846000', 'the pink Depot by fengroup', '9840000');</v>
+        <v>insert into Location (l_id, l_addr, l_phnum, l_income, l_name, PRICE_CHK) values (101, '126 that street', 5124891152, 9846000, 'the pink Depot by fengroup', '9840000');</v>
       </c>
     </row>
   </sheetData>
@@ -880,8 +896,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{8D723CFE-F6D6-437B-A09E-F4C9D56AFC57}">
   <dimension ref="A1:I3"/>
   <sheetViews>
-    <sheetView topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I3"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="I3" sqref="I3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -891,23 +907,23 @@
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>63</v>
+        <v>59</v>
       </c>
       <c r="B1" t="s">
-        <v>64</v>
+        <v>60</v>
       </c>
       <c r="C1" t="s">
-        <v>65</v>
+        <v>61</v>
       </c>
       <c r="D1" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="G1" t="str">
-        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", " &amp;D1&amp;") values "</f>
-        <v xml:space="preserve">insert into Department (BUY_DATE, B_ID, B_NAME, CAR_INFO) values </v>
+        <f>"insert into Buyer (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", " &amp;D1&amp;") values "</f>
+        <v xml:space="preserve">insert into Buyer (date, b_id, b_name, car_info) values </v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -924,12 +940,12 @@
         <v>13</v>
       </c>
       <c r="G2" t="str">
-        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;", '"&amp;D2&amp;"')"</f>
-        <v>('43833', '1', 'Smith,Lane , 'RCA,159648,80000')</v>
+        <f>"('"&amp;A2&amp;"', "&amp;B2&amp;", '"&amp;C2&amp;"', '"&amp;D2&amp;"')"</f>
+        <v>('43833', 1, 'Smith,Lane ', 'RCA,159648,80000')</v>
       </c>
       <c r="H2" t="str">
         <f>IF(ISBLANK(G3),G2&amp;";",G2&amp;", "&amp;G3)</f>
-        <v>('43833', '1', 'Smith,Lane , 'RCA,159648,80000'), ('43834', '2', 'Jack,Train, '4-o's,34Fe5e,5000')</v>
+        <v>('43833', 1, 'Smith,Lane ', 'RCA,159648,80000'), ('43834', 2, 'Jack,Train', '4-os,34Fe5e,5000')</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -940,22 +956,22 @@
         <v>2</v>
       </c>
       <c r="C3" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="D3" t="s">
-        <v>14</v>
+        <v>63</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G6" si="0">"('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;", '"&amp;D3&amp;"')"</f>
-        <v>('43834', '2', 'Jack,Train, '4-o's,34Fe5e,5000')</v>
+        <f>"('"&amp;A3&amp;"', "&amp;B3&amp;", '"&amp;C3&amp;"', '"&amp;D3&amp;"')"</f>
+        <v>('43834', 2, 'Jack,Train', '4-os,34Fe5e,5000')</v>
       </c>
       <c r="H3" t="str">
         <f>IF(ISBLANK(G4),H2&amp;";",H2&amp;", "&amp;G4)</f>
-        <v>('43833', '1', 'Smith,Lane , 'RCA,159648,80000'), ('43834', '2', 'Jack,Train, '4-o's,34Fe5e,5000');</v>
+        <v>('43833', 1, 'Smith,Lane ', 'RCA,159648,80000'), ('43834', 2, 'Jack,Train', '4-os,34Fe5e,5000');</v>
       </c>
       <c r="I3" s="3" t="str">
-        <f t="shared" ref="I3:I5" si="1">$G$1&amp;$H3</f>
-        <v>insert into Department (BUY_DATE, B_ID, B_NAME, CAR_INFO) values ('43833', '1', 'Smith,Lane , 'RCA,159648,80000'), ('43834', '2', 'Jack,Train, '4-o's,34Fe5e,5000');</v>
+        <f>$G$1&amp;$H3</f>
+        <v>insert into Buyer (date, b_id, b_name, car_info) values ('43833', 1, 'Smith,Lane ', 'RCA,159648,80000'), ('43834', 2, 'Jack,Train', '4-os,34Fe5e,5000');</v>
       </c>
     </row>
   </sheetData>
@@ -968,8 +984,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0DDE4EDE-D027-4418-91C1-9FED40FC5F8B}">
   <dimension ref="A1:G35"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="E1" sqref="E1:G4"/>
+    <sheetView topLeftCell="F1" workbookViewId="0">
+      <selection activeCell="G4" sqref="G4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="14.42578125" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -984,20 +1000,20 @@
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>48</v>
+        <v>64</v>
       </c>
       <c r="B1" t="s">
-        <v>49</v>
+        <v>65</v>
       </c>
       <c r="C1" t="s">
-        <v>50</v>
+        <v>66</v>
       </c>
       <c r="E1" t="str">
         <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;") values "</f>
-        <v xml:space="preserve">insert into Department (DEPT_ID, D_NAME, D_SALARY) values </v>
+        <v xml:space="preserve">insert into Department (Dept_id, d_name, d_salary) values </v>
       </c>
       <c r="F1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
@@ -1005,18 +1021,18 @@
         <v>11</v>
       </c>
       <c r="B2" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="C2">
         <v>10000</v>
       </c>
       <c r="E2" t="str">
-        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;"')"</f>
-        <v>('11', 'sells_floor', '10000')</v>
+        <f>"("&amp;A2&amp;", '"&amp;B2&amp;"', "&amp;C2&amp;")"</f>
+        <v>(11, 'sells_floor', 10000)</v>
       </c>
       <c r="F2" t="str">
         <f>IF(ISBLANK(E3),E2&amp;";",E2&amp;", "&amp;E3)</f>
-        <v>('11', 'sells_floor', '10000'), ('12', 'parts', '5000')</v>
+        <v>(11, 'sells_floor', 10000), (12, 'parts', 5000)</v>
       </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
@@ -1024,21 +1040,21 @@
         <v>12</v>
       </c>
       <c r="B3" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="C3">
         <v>5000</v>
       </c>
       <c r="E3" t="str">
-        <f t="shared" ref="E3:E4" si="0">"('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"')"</f>
-        <v>('12', 'parts', '5000')</v>
+        <f t="shared" ref="E3:E4" si="0">"("&amp;A3&amp;", '"&amp;B3&amp;"', "&amp;C3&amp;")"</f>
+        <v>(12, 'parts', 5000)</v>
       </c>
       <c r="F3" t="str">
         <f>IF(ISBLANK(E4),F2&amp;";",F2&amp;", "&amp;E4)</f>
-        <v>('11', 'sells_floor', '10000'), ('12', 'parts', '5000'), ('13', 'repair', '300')</v>
+        <v>(11, 'sells_floor', 10000), (12, 'parts', 5000), (13, 'repair', 300)</v>
       </c>
       <c r="G3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
@@ -1046,22 +1062,22 @@
         <v>13</v>
       </c>
       <c r="B4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="C4">
         <v>300</v>
       </c>
       <c r="E4" t="str">
         <f t="shared" si="0"/>
-        <v>('13', 'repair', '300')</v>
+        <v>(13, 'repair', 300)</v>
       </c>
       <c r="F4" t="str">
         <f>IF((E5=""),F3&amp;";",F3&amp;", "&amp;E5)</f>
-        <v>('11', 'sells_floor', '10000'), ('12', 'parts', '5000'), ('13', 'repair', '300');</v>
+        <v>(11, 'sells_floor', 10000), (12, 'parts', 5000), (13, 'repair', 300);</v>
       </c>
       <c r="G4" s="3" t="str">
         <f>$E$1&amp;$F4</f>
-        <v>insert into Department (DEPT_ID, D_NAME, D_SALARY) values ('11', 'sells_floor', '10000'), ('12', 'parts', '5000'), ('13', 'repair', '300');</v>
+        <v>insert into Department (Dept_id, d_name, d_salary) values (11, 'sells_floor', 10000), (12, 'parts', 5000), (13, 'repair', 300);</v>
       </c>
     </row>
     <row r="20" spans="5:5" x14ac:dyDescent="0.25">
@@ -1170,7 +1186,7 @@
   <dimension ref="A1:K5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="I18" sqref="I18"/>
+      <selection activeCell="K4" sqref="K4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1181,108 +1197,108 @@
   <sheetData>
     <row r="1" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>67</v>
+        <v>72</v>
       </c>
       <c r="B1" t="s">
-        <v>68</v>
+        <v>73</v>
       </c>
       <c r="C1" t="s">
-        <v>69</v>
+        <v>75</v>
       </c>
       <c r="D1" t="s">
-        <v>70</v>
+        <v>76</v>
       </c>
       <c r="E1" t="s">
-        <v>71</v>
+        <v>77</v>
       </c>
       <c r="I1" t="str">
-        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;E1&amp;", "&amp;F1&amp;") values "</f>
-        <v xml:space="preserve">insert into Department (NEW_USED, CAR_NUM, COMPANY, VIN_NUM, CAR_PRICE, ) values </v>
+        <f>"insert into Inventory(" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", "&amp;D1&amp;", "&amp;E1&amp;") values "</f>
+        <v xml:space="preserve">insert into Inventory(new_used, car_num, company, vin_num, car_price) values </v>
       </c>
       <c r="J1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B2">
         <v>202</v>
       </c>
       <c r="C2" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D2" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="E2">
         <v>59999</v>
       </c>
       <c r="I2" t="str">
-        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;"', '"&amp;D2&amp;"', '"&amp;E2&amp;"')"</f>
-        <v>('New', '202', '4-o's', '22eft57-a', '59999')</v>
+        <f>"('"&amp;A2&amp;"', "&amp;B2&amp;", '"&amp;C2&amp;"', '"&amp;D2&amp;"', "&amp;E2&amp;")"</f>
+        <v>('New', 202, '4-os', '22eft57-a', 59999)</v>
       </c>
       <c r="J2" t="str">
         <f>IF(ISBLANK(I3),I2&amp;";",I2&amp;", "&amp;I3)</f>
-        <v>('New', '202', '4-o's', '22eft57-a', '59999'), ('Used ', '203', '4-o's', 'ssfj69ij-a', '29999')</v>
+        <v>('New', 202, '4-os', '22eft57-a', 59999), ('Used ', 203, '4-os', 'ssfj69ij-a', 29999)</v>
       </c>
     </row>
     <row r="3" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B3">
         <v>203</v>
       </c>
       <c r="C3" t="s">
-        <v>20</v>
+        <v>74</v>
       </c>
       <c r="D3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="E3">
         <v>29999</v>
       </c>
       <c r="I3" t="str">
-        <f t="shared" ref="I3:I4" si="0">"('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"', '"&amp;D3&amp;"', '"&amp;E3&amp;"')"</f>
-        <v>('Used ', '203', '4-o's', 'ssfj69ij-a', '29999')</v>
+        <f t="shared" ref="I3:I4" si="0">"('"&amp;A3&amp;"', "&amp;B3&amp;", '"&amp;C3&amp;"', '"&amp;D3&amp;"', "&amp;E3&amp;")"</f>
+        <v>('Used ', 203, '4-os', 'ssfj69ij-a', 29999)</v>
       </c>
       <c r="J3" t="str">
         <f>IF(ISBLANK(I4),J2&amp;";",J2&amp;", "&amp;I4)</f>
-        <v>('New', '202', '4-o's', '22eft57-a', '59999'), ('Used ', '203', '4-o's', 'ssfj69ij-a', '29999'), ('New', '204', 'RCA', '33gthry7-s', '39999')</v>
+        <v>('New', 202, '4-os', '22eft57-a', 59999), ('Used ', 203, '4-os', 'ssfj69ij-a', 29999), ('New', 204, 'RCA', '33gthry7-s', 39999)</v>
       </c>
       <c r="K3" t="s">
-        <v>56</v>
+        <v>47</v>
       </c>
     </row>
     <row r="4" spans="1:11" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B4">
         <v>204</v>
       </c>
       <c r="C4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="D4" t="s">
-        <v>25</v>
+        <v>23</v>
       </c>
       <c r="E4">
         <v>39999</v>
       </c>
       <c r="I4" t="str">
-        <f>"('"&amp;A4&amp;"', '"&amp;B4&amp;"', '"&amp;C4&amp;"', '"&amp;D4&amp;"', '"&amp;E4&amp;"')"</f>
-        <v>('New', '204', 'RCA', '33gthry7-s', '39999')</v>
+        <f t="shared" si="0"/>
+        <v>('New', 204, 'RCA', '33gthry7-s', 39999)</v>
       </c>
       <c r="J4" t="str">
         <f>IF(ISBLANK(I5),J3&amp;";",J3&amp;", "&amp;I5)</f>
-        <v>('New', '202', '4-o's', '22eft57-a', '59999'), ('Used ', '203', '4-o's', 'ssfj69ij-a', '29999'), ('New', '204', 'RCA', '33gthry7-s', '39999');</v>
+        <v>('New', 202, '4-os', '22eft57-a', 59999), ('Used ', 203, '4-os', 'ssfj69ij-a', 29999), ('New', 204, 'RCA', '33gthry7-s', 39999);</v>
       </c>
       <c r="K4" s="3" t="str">
         <f>$I$1&amp;$J4</f>
-        <v>insert into Department (NEW_USED, CAR_NUM, COMPANY, VIN_NUM, CAR_PRICE, ) values ('New', '202', '4-o's', '22eft57-a', '59999'), ('Used ', '203', '4-o's', 'ssfj69ij-a', '29999'), ('New', '204', 'RCA', '33gthry7-s', '39999');</v>
+        <v>insert into Inventory(new_used, car_num, company, vin_num, car_price) values ('New', 202, '4-os', '22eft57-a', 59999), ('Used ', 203, '4-os', 'ssfj69ij-a', 29999), ('New', 204, 'RCA', '33gthry7-s', 39999);</v>
       </c>
     </row>
     <row r="5" spans="1:11" x14ac:dyDescent="0.25">
@@ -1298,32 +1314,32 @@
   <dimension ref="A1:I21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="G1" sqref="G1:I21"/>
+      <selection activeCell="I21" sqref="I21"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>72</v>
+        <v>78</v>
       </c>
       <c r="B1" t="s">
-        <v>73</v>
+        <v>79</v>
       </c>
       <c r="C1" t="s">
-        <v>74</v>
+        <v>80</v>
       </c>
       <c r="G1" t="str">
-        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", " &amp;D1&amp;") values "</f>
-        <v xml:space="preserve">insert into Department (PART_NAME, PART_NUM, PART_PRICE, ) values </v>
+        <f>"insert into Parts (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;") values "</f>
+        <v xml:space="preserve">insert into Parts (part_name, part_num, part_price) values </v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>26</v>
+        <v>24</v>
       </c>
       <c r="B2">
         <v>1</v>
@@ -1332,17 +1348,17 @@
         <v>100</v>
       </c>
       <c r="G2" t="str">
-        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;"')"</f>
-        <v>('battery', '1', '100')</v>
+        <f>"('"&amp;A2&amp;"', "&amp;B2&amp;", "&amp;C2&amp;")"</f>
+        <v>('battery', 1, 100)</v>
       </c>
       <c r="H2" t="str">
         <f>IF(ISBLANK(G3),G2&amp;";",G2&amp;", "&amp;G3)</f>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25)</v>
       </c>
     </row>
     <row r="3" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>27</v>
+        <v>25</v>
       </c>
       <c r="B3">
         <v>2</v>
@@ -1351,17 +1367,17 @@
         <v>25</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G21" si="0">"('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"')"</f>
-        <v>('brakes pads', '2', '25')</v>
+        <f t="shared" ref="G3:G21" si="0">"('"&amp;A3&amp;"', "&amp;B3&amp;", "&amp;C3&amp;")"</f>
+        <v>('brakes pads', 2, 25)</v>
       </c>
       <c r="H3" t="str">
         <f>IF(ISBLANK(G4),H2&amp;";",H2&amp;", "&amp;G4)</f>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5)</v>
       </c>
     </row>
     <row r="4" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>28</v>
+        <v>26</v>
       </c>
       <c r="B4">
         <v>3</v>
@@ -1371,16 +1387,16 @@
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>('spark plugs', '3', '5')</v>
+        <v>('spark plugs', 3, 5)</v>
       </c>
       <c r="H4" t="str">
         <f t="shared" ref="H4:H21" si="1">IF(ISBLANK(G5),H3&amp;";",H3&amp;", "&amp;G5)</f>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10)</v>
       </c>
     </row>
     <row r="5" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>29</v>
+        <v>27</v>
       </c>
       <c r="B5">
         <v>4</v>
@@ -1390,16 +1406,16 @@
       </c>
       <c r="G5" t="str">
         <f t="shared" si="0"/>
-        <v>('fuel injector ', '4', '10')</v>
+        <v>('fuel injector ', 4, 10)</v>
       </c>
       <c r="H5" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45)</v>
       </c>
     </row>
     <row r="6" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>30</v>
+        <v>28</v>
       </c>
       <c r="B6">
         <v>5</v>
@@ -1409,16 +1425,16 @@
       </c>
       <c r="G6" t="str">
         <f t="shared" si="0"/>
-        <v>('radiator', '5', '45')</v>
+        <v>('radiator', 5, 45)</v>
       </c>
       <c r="H6" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50)</v>
       </c>
     </row>
     <row r="7" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>31</v>
+        <v>29</v>
       </c>
       <c r="B7">
         <v>6</v>
@@ -1428,16 +1444,16 @@
       </c>
       <c r="G7" t="str">
         <f t="shared" si="0"/>
-        <v>('car jark', '6', '50')</v>
+        <v>('car jark', 6, 50)</v>
       </c>
       <c r="H7" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5)</v>
       </c>
     </row>
     <row r="8" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>32</v>
+        <v>30</v>
       </c>
       <c r="B8">
         <v>7</v>
@@ -1447,16 +1463,16 @@
       </c>
       <c r="G8" t="str">
         <f t="shared" si="0"/>
-        <v>('nuts ', '7', '0.5')</v>
+        <v>('nuts ', 7, 0.5)</v>
       </c>
       <c r="H8" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5)</v>
       </c>
     </row>
     <row r="9" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>33</v>
+        <v>31</v>
       </c>
       <c r="B9">
         <v>8</v>
@@ -1466,16 +1482,16 @@
       </c>
       <c r="G9" t="str">
         <f t="shared" si="0"/>
-        <v>('bolts', '8', '0.5')</v>
+        <v>('bolts', 8, 0.5)</v>
       </c>
       <c r="H9" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150)</v>
       </c>
     </row>
     <row r="10" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>32</v>
       </c>
       <c r="B10">
         <v>9</v>
@@ -1485,16 +1501,16 @@
       </c>
       <c r="G10" t="str">
         <f t="shared" si="0"/>
-        <v>('clutch', '9', '150')</v>
+        <v>('clutch', 9, 150)</v>
       </c>
       <c r="H10" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23)</v>
       </c>
     </row>
     <row r="11" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>35</v>
+        <v>33</v>
       </c>
       <c r="B11">
         <v>10</v>
@@ -1504,16 +1520,16 @@
       </c>
       <c r="G11" t="str">
         <f t="shared" si="0"/>
-        <v>('air filter', '10', '23')</v>
+        <v>('air filter', 10, 23)</v>
       </c>
       <c r="H11" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23), ('muffler', 11, 200)</v>
       </c>
     </row>
     <row r="12" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>36</v>
+        <v>34</v>
       </c>
       <c r="B12">
         <v>11</v>
@@ -1523,16 +1539,16 @@
       </c>
       <c r="G12" t="str">
         <f t="shared" si="0"/>
-        <v>('muffler', '11', '200')</v>
+        <v>('muffler', 11, 200)</v>
       </c>
       <c r="H12" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23), ('muffler', 11, 200), ('catalyic converter', 12, 150)</v>
       </c>
     </row>
     <row r="13" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>37</v>
+        <v>35</v>
       </c>
       <c r="B13">
         <v>12</v>
@@ -1542,16 +1558,16 @@
       </c>
       <c r="G13" t="str">
         <f t="shared" si="0"/>
-        <v>('catalyic converter', '12', '150')</v>
+        <v>('catalyic converter', 12, 150)</v>
       </c>
       <c r="H13" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23), ('muffler', 11, 200), ('catalyic converter', 12, 150), ('alternator', 13, 300)</v>
       </c>
     </row>
     <row r="14" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>38</v>
+        <v>36</v>
       </c>
       <c r="B14">
         <v>13</v>
@@ -1561,16 +1577,16 @@
       </c>
       <c r="G14" t="str">
         <f t="shared" si="0"/>
-        <v>('alternator', '13', '300')</v>
+        <v>('alternator', 13, 300)</v>
       </c>
       <c r="H14" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23), ('muffler', 11, 200), ('catalyic converter', 12, 150), ('alternator', 13, 300), ('seats', 14, 255)</v>
       </c>
     </row>
     <row r="15" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>39</v>
+        <v>37</v>
       </c>
       <c r="B15">
         <v>14</v>
@@ -1580,16 +1596,16 @@
       </c>
       <c r="G15" t="str">
         <f t="shared" si="0"/>
-        <v>('seats', '14', '255')</v>
+        <v>('seats', 14, 255)</v>
       </c>
       <c r="H15" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23), ('muffler', 11, 200), ('catalyic converter', 12, 150), ('alternator', 13, 300), ('seats', 14, 255), ('head light blub ', 15, 8)</v>
       </c>
     </row>
     <row r="16" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>40</v>
+        <v>38</v>
       </c>
       <c r="B16">
         <v>15</v>
@@ -1599,16 +1615,16 @@
       </c>
       <c r="G16" t="str">
         <f t="shared" si="0"/>
-        <v>('head light blub ', '15', '8')</v>
+        <v>('head light blub ', 15, 8)</v>
       </c>
       <c r="H16" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23), ('muffler', 11, 200), ('catalyic converter', 12, 150), ('alternator', 13, 300), ('seats', 14, 255), ('head light blub ', 15, 8), ('oil filter ', 16, 15)</v>
       </c>
     </row>
     <row r="17" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>41</v>
+        <v>39</v>
       </c>
       <c r="B17">
         <v>16</v>
@@ -1618,16 +1634,16 @@
       </c>
       <c r="G17" t="str">
         <f t="shared" si="0"/>
-        <v>('oil filter ', '16', '15')</v>
+        <v>('oil filter ', 16, 15)</v>
       </c>
       <c r="H17" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15'), ('fuel filter', '17', '5')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23), ('muffler', 11, 200), ('catalyic converter', 12, 150), ('alternator', 13, 300), ('seats', 14, 255), ('head light blub ', 15, 8), ('oil filter ', 16, 15), ('fuel filter', 17, 5)</v>
       </c>
     </row>
     <row r="18" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>42</v>
+        <v>40</v>
       </c>
       <c r="B18">
         <v>17</v>
@@ -1637,16 +1653,16 @@
       </c>
       <c r="G18" t="str">
         <f t="shared" si="0"/>
-        <v>('fuel filter', '17', '5')</v>
+        <v>('fuel filter', 17, 5)</v>
       </c>
       <c r="H18" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15'), ('fuel filter', '17', '5'), ('fues', '18', '5')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23), ('muffler', 11, 200), ('catalyic converter', 12, 150), ('alternator', 13, 300), ('seats', 14, 255), ('head light blub ', 15, 8), ('oil filter ', 16, 15), ('fuel filter', 17, 5), ('fues', 18, 5)</v>
       </c>
     </row>
     <row r="19" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>43</v>
+        <v>41</v>
       </c>
       <c r="B19">
         <v>18</v>
@@ -1656,16 +1672,16 @@
       </c>
       <c r="G19" t="str">
         <f t="shared" si="0"/>
-        <v>('fues', '18', '5')</v>
+        <v>('fues', 18, 5)</v>
       </c>
       <c r="H19" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15'), ('fuel filter', '17', '5'), ('fues', '18', '5'), ('brake disc', '19', '30')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23), ('muffler', 11, 200), ('catalyic converter', 12, 150), ('alternator', 13, 300), ('seats', 14, 255), ('head light blub ', 15, 8), ('oil filter ', 16, 15), ('fuel filter', 17, 5), ('fues', 18, 5), ('brake disc', 19, 30)</v>
       </c>
     </row>
     <row r="20" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>44</v>
+        <v>42</v>
       </c>
       <c r="B20">
         <v>19</v>
@@ -1675,16 +1691,16 @@
       </c>
       <c r="G20" t="str">
         <f t="shared" si="0"/>
-        <v>('brake disc', '19', '30')</v>
+        <v>('brake disc', 19, 30)</v>
       </c>
       <c r="H20" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15'), ('fuel filter', '17', '5'), ('fues', '18', '5'), ('brake disc', '19', '30'), ('keys', '20', '500')</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23), ('muffler', 11, 200), ('catalyic converter', 12, 150), ('alternator', 13, 300), ('seats', 14, 255), ('head light blub ', 15, 8), ('oil filter ', 16, 15), ('fuel filter', 17, 5), ('fues', 18, 5), ('brake disc', 19, 30), ('keys', 20, 500)</v>
       </c>
     </row>
     <row r="21" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>45</v>
+        <v>43</v>
       </c>
       <c r="B21">
         <v>20</v>
@@ -1694,15 +1710,15 @@
       </c>
       <c r="G21" t="str">
         <f t="shared" si="0"/>
-        <v>('keys', '20', '500')</v>
+        <v>('keys', 20, 500)</v>
       </c>
       <c r="H21" t="str">
         <f t="shared" si="1"/>
-        <v>('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15'), ('fuel filter', '17', '5'), ('fues', '18', '5'), ('brake disc', '19', '30'), ('keys', '20', '500');</v>
+        <v>('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23), ('muffler', 11, 200), ('catalyic converter', 12, 150), ('alternator', 13, 300), ('seats', 14, 255), ('head light blub ', 15, 8), ('oil filter ', 16, 15), ('fuel filter', 17, 5), ('fues', 18, 5), ('brake disc', 19, 30), ('keys', 20, 500);</v>
       </c>
       <c r="I21" s="3" t="str">
-        <f t="shared" ref="I3:I21" si="2">$G$1&amp;$H21</f>
-        <v>insert into Department (PART_NAME, PART_NUM, PART_PRICE, ) values ('battery', '1', '100'), ('brakes pads', '2', '25'), ('spark plugs', '3', '5'), ('fuel injector ', '4', '10'), ('radiator', '5', '45'), ('car jark', '6', '50'), ('nuts ', '7', '0.5'), ('bolts', '8', '0.5'), ('clutch', '9', '150'), ('air filter', '10', '23'), ('muffler', '11', '200'), ('catalyic converter', '12', '150'), ('alternator', '13', '300'), ('seats', '14', '255'), ('head light blub ', '15', '8'), ('oil filter ', '16', '15'), ('fuel filter', '17', '5'), ('fues', '18', '5'), ('brake disc', '19', '30'), ('keys', '20', '500');</v>
+        <f t="shared" ref="I21" si="2">$G$1&amp;$H21</f>
+        <v>insert into Parts (part_name, part_num, part_price) values ('battery', 1, 100), ('brakes pads', 2, 25), ('spark plugs', 3, 5), ('fuel injector ', 4, 10), ('radiator', 5, 45), ('car jark', 6, 50), ('nuts ', 7, 0.5), ('bolts', 8, 0.5), ('clutch', 9, 150), ('air filter', 10, 23), ('muffler', 11, 200), ('catalyic converter', 12, 150), ('alternator', 13, 300), ('seats', 14, 255), ('head light blub ', 15, 8), ('oil filter ', 16, 15), ('fuel filter', 17, 5), ('fues', 18, 5), ('brake disc', 19, 30), ('keys', 20, 500);</v>
       </c>
     </row>
   </sheetData>
@@ -1715,28 +1731,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{79F65F2D-A69E-4948-9292-C25AF56E58C1}">
   <dimension ref="A1:I4"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="I11" sqref="I11"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="H12" sqref="H12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:9" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
-        <v>75</v>
+        <v>81</v>
       </c>
       <c r="B1" t="s">
-        <v>76</v>
+        <v>49</v>
       </c>
       <c r="C1" t="s">
-        <v>77</v>
+        <v>82</v>
       </c>
       <c r="G1" t="str">
-        <f>"insert into Department (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;", " &amp;D1&amp;") values "</f>
-        <v xml:space="preserve">insert into Department (REPAIR_NO, VIN_NO, REPAIR_PRICE, ) values </v>
+        <f>"insert into Car (" &amp;A1&amp;", "&amp;B1&amp;", "&amp;C1&amp;") values "</f>
+        <v xml:space="preserve">insert into Car (repair_num, VIN_NUM, repair_price) values </v>
       </c>
       <c r="H1" s="2" t="s">
-        <v>55</v>
+        <v>46</v>
       </c>
     </row>
     <row r="2" spans="1:9" x14ac:dyDescent="0.25">
@@ -1744,18 +1760,18 @@
         <v>1</v>
       </c>
       <c r="B2" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
       <c r="C2">
         <v>3000</v>
       </c>
       <c r="G2" t="str">
-        <f>"('"&amp;A2&amp;"', '"&amp;B2&amp;"', '"&amp;C2&amp;"')"</f>
-        <v>('1', '4reht6', '3000')</v>
+        <f>"("&amp;A2&amp;", '"&amp;B2&amp;"', "&amp;C2&amp;")"</f>
+        <v>(1, '4reht6', 3000)</v>
       </c>
       <c r="H2" t="str">
         <f>IF(ISBLANK(G3),G2&amp;";",G2&amp;", "&amp;G3)</f>
-        <v>('1', '4reht6', '3000'), ('2', 'ssfj69ij-a', '500')</v>
+        <v>(1, '4reht6', 3000), (2, 'ssfj69ij-a', 500)</v>
       </c>
     </row>
     <row r="3" spans="1:9" x14ac:dyDescent="0.25">
@@ -1763,18 +1779,18 @@
         <v>2</v>
       </c>
       <c r="B3" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="C3">
         <v>500</v>
       </c>
       <c r="G3" t="str">
-        <f t="shared" ref="G3:G21" si="0">"('"&amp;A3&amp;"', '"&amp;B3&amp;"', '"&amp;C3&amp;"')"</f>
-        <v>('2', 'ssfj69ij-a', '500')</v>
+        <f t="shared" ref="G3:G4" si="0">"("&amp;A3&amp;", '"&amp;B3&amp;"', "&amp;C3&amp;")"</f>
+        <v>(2, 'ssfj69ij-a', 500)</v>
       </c>
       <c r="H3" t="str">
         <f>IF(ISBLANK(G4),H2&amp;";",H2&amp;", "&amp;G4)</f>
-        <v>('1', '4reht6', '3000'), ('2', 'ssfj69ij-a', '500'), ('3', 'futis', '150')</v>
+        <v>(1, '4reht6', 3000), (2, 'ssfj69ij-a', 500), (3, 'futis', 150)</v>
       </c>
     </row>
     <row r="4" spans="1:9" x14ac:dyDescent="0.25">
@@ -1782,22 +1798,62 @@
         <v>3</v>
       </c>
       <c r="B4" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="C4">
         <v>150</v>
       </c>
       <c r="G4" t="str">
         <f t="shared" si="0"/>
-        <v>('3', 'futis', '150')</v>
+        <v>(3, 'futis', 150)</v>
       </c>
       <c r="H4" t="str">
-        <f t="shared" ref="H4:H21" si="1">IF(ISBLANK(G5),H3&amp;";",H3&amp;", "&amp;G5)</f>
-        <v>('1', '4reht6', '3000'), ('2', 'ssfj69ij-a', '500'), ('3', 'futis', '150');</v>
+        <f t="shared" ref="H4" si="1">IF(ISBLANK(G5),H3&amp;";",H3&amp;", "&amp;G5)</f>
+        <v>(1, '4reht6', 3000), (2, 'ssfj69ij-a', 500), (3, 'futis', 150);</v>
       </c>
       <c r="I4" s="3" t="str">
         <f>$G$1&amp;$H4</f>
-        <v>insert into Department (REPAIR_NO, VIN_NO, REPAIR_PRICE, ) values ('1', '4reht6', '3000'), ('2', 'ssfj69ij-a', '500'), ('3', 'futis', '150');</v>
+        <v>insert into Car (repair_num, VIN_NUM, repair_price) values (1, '4reht6', 3000), (2, 'ssfj69ij-a', 500), (3, 'futis', 150);</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7AD7EC4B-DF0F-43D8-AAC9-589069F9C27E}">
+  <dimension ref="A1:A5"/>
+  <sheetViews>
+    <sheetView topLeftCell="A7" workbookViewId="0">
+      <selection activeCell="C11" sqref="C11"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData>
+    <row r="1" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A1" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="2" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="3" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="4" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="5" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>71</v>
       </c>
     </row>
   </sheetData>
